--- a/Financial-Engineering-Projects/work_3/603037.xlsx
+++ b/Financial-Engineering-Projects/work_3/603037.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
